--- a/Stage 2 data dictionary.xlsx
+++ b/Stage 2 data dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taran\Downloads\Bhasvic\Computer science A2\Coursework\Iterative devlopement\Stage 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taran\Downloads\Computer science coursework\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AFF221-7E1D-4A30-9FF8-5E6A01539782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3413C0AC-78D5-4329-B214-AAEC1E1F5E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{B543D5BF-5226-4058-973D-C0FEAC50E4E8}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="23370" xr2:uid="{B543D5BF-5226-4058-973D-C0FEAC50E4E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,21 +56,12 @@
     <t>Example</t>
   </si>
   <si>
-    <t>app</t>
-  </si>
-  <si>
     <t>QApplication</t>
   </si>
   <si>
-    <t>Object instance</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Initializes the start of your GUI (game can start now)</t>
-  </si>
-  <si>
     <t>app = QApplication(sys.argv)</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>MainWindow</t>
   </si>
   <si>
-    <t>The window that pops up in which the game is now starting</t>
-  </si>
-  <si>
     <t>window = MainWindow()</t>
   </si>
   <si>
@@ -104,96 +92,30 @@
     <t>QVBoxLayout</t>
   </si>
   <si>
-    <t>The layout for organizing the widgets vertically</t>
-  </si>
-  <si>
     <t>layout = QVBoxLayout(centralWidget)</t>
   </si>
   <si>
-    <t>player_inputs</t>
-  </si>
-  <si>
-    <t>List[QLineEdit]</t>
-  </si>
-  <si>
     <t>List of objects</t>
   </si>
   <si>
     <t>6 items</t>
   </si>
   <si>
-    <t>Holds references to all 6 player input fields</t>
-  </si>
-  <si>
-    <t>self.player_inputs.append(entry)</t>
-  </si>
-  <si>
-    <t>capital_input</t>
-  </si>
-  <si>
     <t>QSpinBox</t>
   </si>
   <si>
-    <t>Input spinner for setting starting capital</t>
-  </si>
-  <si>
-    <t>self.capital_input = QSpinBox()</t>
-  </si>
-  <si>
-    <t>back_button</t>
-  </si>
-  <si>
     <t>QPushButton</t>
   </si>
   <si>
-    <t>Back button for navigating to the previous screen</t>
-  </si>
-  <si>
-    <t>back_button = QPushButton("← Back")</t>
-  </si>
-  <si>
-    <t>forward_button</t>
-  </si>
-  <si>
-    <t>Start game button to initiate the game</t>
-  </si>
-  <si>
-    <t>forward_button = QPushButton("→ Start Game")</t>
-  </si>
-  <si>
-    <t>button_layout</t>
-  </si>
-  <si>
     <t>QHBoxLayout</t>
   </si>
   <si>
-    <t>Horizontal layout to align back and start buttons left and right</t>
-  </si>
-  <si>
     <t>button_layout = QHBoxLayout()</t>
   </si>
   <si>
-    <t>go_back</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>Function to go back to the previous screen (action for back button)</t>
-  </si>
-  <si>
-    <t>def go_back(self):</t>
-  </si>
-  <si>
-    <t>start_game</t>
-  </si>
-  <si>
-    <t>Function to start the game (action for start button)</t>
-  </si>
-  <si>
-    <t>def start_game(self):</t>
-  </si>
-  <si>
     <t>setGeometry</t>
   </si>
   <si>
@@ -206,9 +128,6 @@
     <t>4 parameters</t>
   </si>
   <si>
-    <t>Sets the position and size of the window</t>
-  </si>
-  <si>
     <t>self.setGeometry(700, 300, 1000, 1000)</t>
   </si>
   <si>
@@ -218,9 +137,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Sets the window's title</t>
-  </si>
-  <si>
     <t>self.setWindowTitle("League of Traders")</t>
   </si>
   <si>
@@ -230,28 +146,112 @@
     <t>QIcon</t>
   </si>
   <si>
-    <t>Sets the window's icon</t>
-  </si>
-  <si>
-    <t>self.setWindowIcon(QIcon("app.png"))</t>
-  </si>
-  <si>
     <t>setStyleSheet</t>
   </si>
   <si>
-    <t>Sets the stylesheet for the window and widgets</t>
-  </si>
-  <si>
     <t>self.setStyleSheet("...")</t>
   </si>
   <si>
     <t>showMaximized</t>
   </si>
   <si>
-    <t>Maximizes the window when the program starts</t>
-  </si>
-  <si>
     <t>self.showMaximized()</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Allows the game to be able to start</t>
+  </si>
+  <si>
+    <t>self.playerIuts.append(entry)</t>
+  </si>
+  <si>
+    <t>self.capitalInput = QSpinBox()</t>
+  </si>
+  <si>
+    <t>backButton = QPushButton("← Back")</t>
+  </si>
+  <si>
+    <t>forwardButton = QPushButton("→ Start Game")</t>
+  </si>
+  <si>
+    <t>def goBack(self):</t>
+  </si>
+  <si>
+    <t>Creates the outline of our new window (A blank screen)</t>
+  </si>
+  <si>
+    <t>This allows my widgets to have a specifc layout, ion this case, its verticle</t>
+  </si>
+  <si>
+    <t>This gives the number of players ill have, in this case 6</t>
+  </si>
+  <si>
+    <t>playerInputs</t>
+  </si>
+  <si>
+    <t>capitalInput</t>
+  </si>
+  <si>
+    <t>backButton</t>
+  </si>
+  <si>
+    <t>forwardButton</t>
+  </si>
+  <si>
+    <t>buttonLayout</t>
+  </si>
+  <si>
+    <t>goBack</t>
+  </si>
+  <si>
+    <t>Allows us to set the starting capital all players will have</t>
+  </si>
+  <si>
+    <t>This button will be used to go to the previous slide</t>
+  </si>
+  <si>
+    <t>This button will be used to go to the next slide</t>
+  </si>
+  <si>
+    <t>As I want my button layout to be horizontal and not vertivle, it will be used to have a different layout to my other widgets</t>
+  </si>
+  <si>
+    <t>Function used to go back</t>
+  </si>
+  <si>
+    <t>Function used to go forward)</t>
+  </si>
+  <si>
+    <t>goForward</t>
+  </si>
+  <si>
+    <t>def goForward(self):</t>
+  </si>
+  <si>
+    <t>Sets the width and length of my window once it is opened</t>
+  </si>
+  <si>
+    <t>Used to give the window an actual title</t>
+  </si>
+  <si>
+    <t>self.setWindowIcon(QIcon("App.png"))</t>
+  </si>
+  <si>
+    <t>Sets the icon my window will have</t>
+  </si>
+  <si>
+    <t>This is used to set my background style sheet, made it different to my widgets</t>
+  </si>
+  <si>
+    <t>Maximizes the window once the program is started</t>
+  </si>
+  <si>
+    <t>List (array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object </t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE2B70C-F65C-4C60-9C3B-F42B978A6C64}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -680,324 +680,324 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="101.5">
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="43.5">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="116">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" ht="43.5">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="101.5">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:6" ht="43.5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="43.5">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="87">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="87">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="87">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="87">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="37.5">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.5">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.5">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="116">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="130.5">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="87">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="72.5">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="62.5">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="50">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="87">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="87">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
